--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="242">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">23:35</t>
   </si>
   <si>
-    <t xml:space="preserve">Lza, Eza</t>
+    <t xml:space="preserve">ELza</t>
   </si>
   <si>
     <t xml:space="preserve">Lh, Eh</t>
@@ -264,6 +264,9 @@
     <t xml:space="preserve">23:59</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lcan`t,E1</t>
   </si>
   <si>
@@ -274,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">L1,E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24()</t>
   </si>
   <si>
     <t xml:space="preserve">Ed24</t>
@@ -1517,14 +1526,11 @@
   </sheetPr>
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.05"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2021,6 +2027,9 @@
       <c r="B5" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" s="0" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>76</v>
@@ -2052,10 +2061,10 @@
         <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>47</v>
@@ -2064,7 +2073,7 @@
         <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>47</v>
@@ -2076,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W5" s="0" t="s">
         <v>47</v>
@@ -2101,6 +2110,9 @@
       </c>
       <c r="AD5" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="AF5" s="0" t="s">
         <v>47</v>
@@ -2135,13 +2147,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -2181,13 +2193,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>67</v>
@@ -2204,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>65</v>
@@ -2273,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -2319,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>65</v>
@@ -2371,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>67</v>
@@ -2411,13 +2423,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>67</v>
@@ -2434,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>65</v>
@@ -2503,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>65</v>
@@ -2549,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>65</v>
@@ -2647,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>67</v>
@@ -2687,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>65</v>
@@ -2710,13 +2722,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>67</v>
@@ -2785,7 +2797,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -2886,305 +2898,305 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="Q2" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="AD2" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AC3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AD4" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3192,133 +3204,133 @@
         <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="36"/>
       <c r="K5" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N6" s="43"/>
       <c r="O6" s="45"/>
@@ -3327,39 +3339,39 @@
       <c r="R6" s="46"/>
       <c r="S6" s="43"/>
       <c r="T6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U6" s="47"/>
       <c r="V6" s="45"/>
       <c r="W6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="X6" s="47"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="48"/>
       <c r="AA6" s="49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD6" s="45"/>
       <c r="AE6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51"/>
@@ -3379,511 +3391,511 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="55"/>
       <c r="S7" s="56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="T7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X7" s="57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="58" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AE7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF7" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG7" s="58" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="U8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="W8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="X8" s="54"/>
       <c r="Y8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z8" s="53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AE8" s="54"/>
       <c r="AF8" s="54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG8" s="53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R9" s="66" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AD9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF9" s="65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG9" s="64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K10" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R10" s="73" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V10" s="72"/>
       <c r="W10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="X10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z10" s="71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA10" s="70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD10" s="72"/>
       <c r="AE10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF10" s="72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG10" s="71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="75" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="78" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R11" s="80" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S11" s="77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U11" s="79"/>
       <c r="V11" s="79"/>
       <c r="W11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="X11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Z11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA11" s="77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AB11" s="77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AC11" s="79"/>
       <c r="AD11" s="79"/>
       <c r="AE11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG11" s="79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="76"/>
       <c r="D12" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="75" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M12" s="78"/>
       <c r="N12" s="79" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S12" s="77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="T12" s="77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="U12" s="79"/>
       <c r="V12" s="79"/>
       <c r="W12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="79" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Z12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AA12" s="77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AB12" s="77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AC12" s="79"/>
       <c r="AD12" s="79"/>
       <c r="AE12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF12" s="79" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG12" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="76"/>
@@ -3912,7 +3924,7 @@
       </c>
       <c r="M13" s="78"/>
       <c r="N13" s="79" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>56</v>
@@ -3966,28 +3978,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76"/>
       <c r="D14" s="74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="74"/>
       <c r="J14" s="74" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="75" t="n">
@@ -3995,341 +4007,341 @@
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O14" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P14" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R14" s="80" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S14" s="77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="T14" s="77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
       <c r="W14" s="79" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X14" s="79" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Z14" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AB14" s="77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AC14" s="79"/>
       <c r="AD14" s="79"/>
       <c r="AE14" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF14" s="79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG14" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="AF15" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AG16" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P17" s="83" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="83" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R17" s="83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AA17" s="83" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AB17" s="83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC17" s="83" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AD17" s="83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AF17" s="83" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M18" s="84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P18" s="84" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="84" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R18" s="84" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AC18" s="83" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AD18" s="84" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG18" s="84" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="O19" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T19" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="U19" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="O19" s="85" t="s">
+      <c r="AA19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T19" s="85" t="s">
+      <c r="AB19" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC19" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="U19" s="85" t="s">
+      <c r="AD19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG19" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB19" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC19" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
@@ -4340,7 +4352,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B21" s="86" t="n">
         <f aca="false">FALSE()</f>
@@ -4540,31 +4552,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F1" s="91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I1" s="91" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K1" s="95" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4583,12 +4595,12 @@
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
       <c r="F2" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="100" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K2" s="101"/>
       <c r="L2" s="102"/>
@@ -4608,19 +4620,19 @@
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H3" s="103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I3" s="99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K3" s="101"/>
       <c r="L3" s="102"/>
@@ -4640,16 +4652,16 @@
       </c>
       <c r="D4" s="99"/>
       <c r="E4" s="89" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G4" s="99"/>
       <c r="H4" s="103"/>
       <c r="I4" s="99"/>
       <c r="J4" s="100" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="102"/>
@@ -4670,13 +4682,13 @@
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="103"/>
       <c r="I5" s="99"/>
       <c r="J5" s="100" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="102"/>
@@ -4692,18 +4704,18 @@
       </c>
       <c r="C6" s="91" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
-        <v>Ed24</v>
+        <v>Ed24(0)</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
       <c r="F6" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" s="99"/>
       <c r="H6" s="103"/>
       <c r="I6" s="99"/>
       <c r="J6" s="100" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="102"/>
@@ -4724,13 +4736,13 @@
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G7" s="99"/>
       <c r="H7" s="103"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K7" s="101"/>
       <c r="L7" s="102"/>
@@ -4746,19 +4758,19 @@
       </c>
       <c r="C8" s="91" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
-        <v>Ed24</v>
+        <v>Ed24()</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="103"/>
       <c r="I8" s="102"/>
       <c r="J8" s="105" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="102"/>
@@ -4779,13 +4791,13 @@
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
       <c r="F9" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="102"/>
       <c r="J9" s="105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K9" s="101"/>
       <c r="L9" s="102"/>
@@ -4806,13 +4818,13 @@
       <c r="D10" s="99"/>
       <c r="E10" s="99"/>
       <c r="F10" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="103"/>
       <c r="I10" s="102"/>
       <c r="J10" s="105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K10" s="101"/>
       <c r="L10" s="102"/>
@@ -4832,18 +4844,18 @@
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H11" s="103"/>
       <c r="I11" s="102"/>
       <c r="J11" s="89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K11" s="101"/>
       <c r="L11" s="102"/>
@@ -4863,13 +4875,13 @@
       </c>
       <c r="D12" s="99"/>
       <c r="F12" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G12" s="99"/>
       <c r="H12" s="103"/>
       <c r="I12" s="102"/>
       <c r="J12" s="105" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K12" s="101"/>
       <c r="L12" s="102"/>
@@ -4890,13 +4902,13 @@
       <c r="D13" s="99"/>
       <c r="E13" s="99"/>
       <c r="F13" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
       <c r="J13" s="105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K13" s="101"/>
       <c r="L13" s="102"/>
@@ -4916,16 +4928,16 @@
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="89" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G14" s="99"/>
       <c r="H14" s="103"/>
       <c r="I14" s="102"/>
       <c r="J14" s="89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K14" s="101"/>
       <c r="L14" s="102"/>
@@ -4946,13 +4958,13 @@
       <c r="D15" s="99"/>
       <c r="E15" s="99"/>
       <c r="F15" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G15" s="99"/>
       <c r="H15" s="103"/>
       <c r="I15" s="102"/>
       <c r="J15" s="105" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K15" s="95"/>
       <c r="L15" s="96"/>
@@ -4973,7 +4985,7 @@
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="103"/>
@@ -4997,19 +5009,19 @@
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F17" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H17" s="103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K17" s="101"/>
       <c r="L17" s="102"/>
@@ -5029,13 +5041,13 @@
       </c>
       <c r="D18" s="99"/>
       <c r="F18" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G18" s="99"/>
       <c r="H18" s="103"/>
       <c r="I18" s="102"/>
       <c r="J18" s="91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K18" s="101"/>
       <c r="L18" s="102"/>
@@ -5056,13 +5068,13 @@
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
       <c r="F19" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G19" s="99"/>
       <c r="H19" s="103"/>
       <c r="I19" s="102"/>
       <c r="J19" s="100" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="102"/>
@@ -5082,13 +5094,13 @@
       </c>
       <c r="D20" s="99"/>
       <c r="F20" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G20" s="99"/>
       <c r="H20" s="103"/>
       <c r="I20" s="102"/>
       <c r="J20" s="100" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K20" s="101"/>
       <c r="L20" s="102"/>
@@ -5107,16 +5119,16 @@
         <v>-</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F21" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G21" s="99"/>
       <c r="H21" s="103"/>
       <c r="I21" s="99"/>
       <c r="J21" s="100" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K21" s="101"/>
       <c r="L21" s="102"/>
@@ -5136,13 +5148,13 @@
       </c>
       <c r="D22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G22" s="99"/>
       <c r="H22" s="103"/>
       <c r="I22" s="99"/>
       <c r="J22" s="89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K22" s="101"/>
       <c r="L22" s="102"/>
@@ -5162,13 +5174,13 @@
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="103"/>
       <c r="I23" s="99"/>
       <c r="J23" s="100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K23" s="101"/>
       <c r="L23" s="102"/>
@@ -5188,18 +5200,18 @@
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F24" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G24" s="99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="99"/>
       <c r="J24" s="100" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K24" s="101"/>
       <c r="L24" s="102"/>
@@ -5220,13 +5232,13 @@
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="103"/>
       <c r="I25" s="99"/>
       <c r="J25" s="100" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K25" s="101"/>
       <c r="L25" s="102"/>
@@ -5247,13 +5259,13 @@
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
       <c r="F26" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="103"/>
       <c r="I26" s="99"/>
       <c r="J26" s="100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K26" s="101"/>
       <c r="L26" s="102"/>
@@ -5274,13 +5286,13 @@
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
       <c r="F27" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G27" s="99"/>
       <c r="H27" s="103"/>
       <c r="I27" s="99"/>
       <c r="J27" s="100" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K27" s="101"/>
       <c r="L27" s="102"/>
@@ -5300,10 +5312,10 @@
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G28" s="99"/>
       <c r="H28" s="103"/>
@@ -5327,7 +5339,7 @@
       </c>
       <c r="D29" s="99"/>
       <c r="F29" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="103"/>
@@ -5352,7 +5364,7 @@
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
       <c r="F30" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="103"/>
@@ -5376,10 +5388,10 @@
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="103"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="243">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -264,9 +264,6 @@
     <t xml:space="preserve">23:59</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lcan`t,E1</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ed24(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:30</t>
   </si>
   <si>
     <t xml:space="preserve">Ed24()</t>
@@ -1526,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG7" activeCellId="0" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2028,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>64</v>
@@ -2052,7 +2055,7 @@
         <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>76</v>
@@ -2061,10 +2064,10 @@
         <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>47</v>
@@ -2073,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>47</v>
@@ -2085,7 +2088,7 @@
         <v>46</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W5" s="0" t="s">
         <v>47</v>
@@ -2131,6 +2134,9 @@
       </c>
       <c r="AK5" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="AM5" s="0" t="s">
         <v>47</v>
@@ -2146,6 +2152,9 @@
       <c r="B6" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" s="0" t="s">
         <v>41</v>
       </c>
@@ -2153,13 +2162,109 @@
         <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
+      <c r="AB6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,6 +2289,12 @@
       <c r="H7" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="T7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -2199,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>67</v>
@@ -2291,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -2383,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>67</v>
@@ -2429,7 +2540,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>67</v>
@@ -2659,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>67</v>
@@ -2728,7 +2839,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>67</v>
@@ -2797,7 +2908,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -2898,305 +3009,305 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="Q2" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AD2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="L3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="N3" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="O3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="S3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="W3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="AD3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="22" t="s">
+      <c r="AE3" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="21" t="s">
+      <c r="AF3" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="AG3" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="31" t="s">
-        <v>116</v>
-      </c>
       <c r="N4" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD4" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3204,133 +3315,133 @@
         <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="36"/>
       <c r="K5" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="39" t="s">
-        <v>119</v>
-      </c>
       <c r="O5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>122</v>
-      </c>
       <c r="I6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N6" s="43"/>
       <c r="O6" s="45"/>
@@ -3339,39 +3450,39 @@
       <c r="R6" s="46"/>
       <c r="S6" s="43"/>
       <c r="T6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U6" s="47"/>
       <c r="V6" s="45"/>
       <c r="W6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X6" s="47"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="48"/>
       <c r="AA6" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD6" s="45"/>
       <c r="AE6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG6" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51"/>
@@ -3391,511 +3502,511 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="55"/>
       <c r="S7" s="56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X7" s="57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z7" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA7" s="56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF7" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>127</v>
-      </c>
       <c r="C8" s="51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X8" s="54"/>
       <c r="Y8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z8" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="54"/>
       <c r="AF8" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R9" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA9" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AB9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF9" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG9" s="64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R10" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V10" s="72"/>
       <c r="W10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z10" s="71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA10" s="70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD10" s="72"/>
       <c r="AE10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF10" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG10" s="71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R11" s="80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S11" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U11" s="79"/>
       <c r="V11" s="79"/>
       <c r="W11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA11" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB11" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC11" s="79"/>
       <c r="AD11" s="79"/>
       <c r="AE11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG11" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="76"/>
       <c r="D12" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" s="78"/>
       <c r="N12" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="79" t="s">
-        <v>135</v>
-      </c>
       <c r="P12" s="79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S12" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T12" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U12" s="79"/>
       <c r="V12" s="79"/>
       <c r="W12" s="79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X12" s="79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y12" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z12" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="Z12" s="79" t="s">
-        <v>135</v>
-      </c>
       <c r="AA12" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC12" s="79"/>
       <c r="AD12" s="79"/>
       <c r="AE12" s="79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF12" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG12" s="79" t="s">
         <v>136</v>
-      </c>
-      <c r="AG12" s="79" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="76"/>
@@ -3924,7 +4035,7 @@
       </c>
       <c r="M13" s="78"/>
       <c r="N13" s="79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>56</v>
@@ -3978,28 +4089,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76"/>
       <c r="D14" s="74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="77" t="s">
         <v>141</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="74"/>
       <c r="J14" s="74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="75" t="n">
@@ -4007,341 +4118,341 @@
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="79" t="s">
-        <v>141</v>
-      </c>
       <c r="P14" s="79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R14" s="80" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S14" s="77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T14" s="77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
       <c r="W14" s="79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X14" s="79" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z14" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="Z14" s="79" t="s">
-        <v>141</v>
-      </c>
       <c r="AA14" s="77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AB14" s="77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC14" s="79"/>
       <c r="AD14" s="79"/>
       <c r="AE14" s="79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF14" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG14" s="79" t="s">
         <v>142</v>
-      </c>
-      <c r="AG14" s="79" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="AG15" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AG16" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P17" s="83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R17" s="83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA17" s="83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB17" s="83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC17" s="83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD17" s="83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF17" s="83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" s="84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P18" s="84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R18" s="84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC18" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD18" s="84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" s="84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="O19" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T19" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="U19" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="AB19" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC19" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG19" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T19" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="U19" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB19" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC19" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
@@ -4352,7 +4463,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" s="86" t="n">
         <f aca="false">FALSE()</f>
@@ -4552,31 +4663,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I1" s="91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K1" s="95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4595,12 +4706,12 @@
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
       <c r="F2" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K2" s="101"/>
       <c r="L2" s="102"/>
@@ -4620,19 +4731,19 @@
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H3" s="103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" s="99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K3" s="101"/>
       <c r="L3" s="102"/>
@@ -4652,16 +4763,16 @@
       </c>
       <c r="D4" s="99"/>
       <c r="E4" s="89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G4" s="99"/>
       <c r="H4" s="103"/>
       <c r="I4" s="99"/>
       <c r="J4" s="100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="102"/>
@@ -4682,13 +4793,13 @@
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="103"/>
       <c r="I5" s="99"/>
       <c r="J5" s="100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="102"/>
@@ -4709,13 +4820,13 @@
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
       <c r="F6" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G6" s="99"/>
       <c r="H6" s="103"/>
       <c r="I6" s="99"/>
       <c r="J6" s="100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="102"/>
@@ -4736,13 +4847,13 @@
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G7" s="99"/>
       <c r="H7" s="103"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K7" s="101"/>
       <c r="L7" s="102"/>
@@ -4761,16 +4872,16 @@
         <v>Ed24()</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="103"/>
       <c r="I8" s="102"/>
       <c r="J8" s="105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="102"/>
@@ -4791,13 +4902,13 @@
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
       <c r="F9" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="102"/>
       <c r="J9" s="105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K9" s="101"/>
       <c r="L9" s="102"/>
@@ -4818,13 +4929,13 @@
       <c r="D10" s="99"/>
       <c r="E10" s="99"/>
       <c r="F10" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="103"/>
       <c r="I10" s="102"/>
       <c r="J10" s="105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K10" s="101"/>
       <c r="L10" s="102"/>
@@ -4844,18 +4955,18 @@
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" s="103"/>
       <c r="I11" s="102"/>
       <c r="J11" s="89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K11" s="101"/>
       <c r="L11" s="102"/>
@@ -4875,13 +4986,13 @@
       </c>
       <c r="D12" s="99"/>
       <c r="F12" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G12" s="99"/>
       <c r="H12" s="103"/>
       <c r="I12" s="102"/>
       <c r="J12" s="105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K12" s="101"/>
       <c r="L12" s="102"/>
@@ -4902,13 +5013,13 @@
       <c r="D13" s="99"/>
       <c r="E13" s="99"/>
       <c r="F13" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
       <c r="J13" s="105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K13" s="101"/>
       <c r="L13" s="102"/>
@@ -4928,16 +5039,16 @@
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G14" s="99"/>
       <c r="H14" s="103"/>
       <c r="I14" s="102"/>
       <c r="J14" s="89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K14" s="101"/>
       <c r="L14" s="102"/>
@@ -4958,13 +5069,13 @@
       <c r="D15" s="99"/>
       <c r="E15" s="99"/>
       <c r="F15" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G15" s="99"/>
       <c r="H15" s="103"/>
       <c r="I15" s="102"/>
       <c r="J15" s="105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K15" s="95"/>
       <c r="L15" s="96"/>
@@ -4985,7 +5096,7 @@
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="103"/>
@@ -5009,19 +5120,19 @@
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="103" t="s">
-        <v>215</v>
-      </c>
       <c r="I17" s="102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K17" s="101"/>
       <c r="L17" s="102"/>
@@ -5041,13 +5152,13 @@
       </c>
       <c r="D18" s="99"/>
       <c r="F18" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G18" s="99"/>
       <c r="H18" s="103"/>
       <c r="I18" s="102"/>
       <c r="J18" s="91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K18" s="101"/>
       <c r="L18" s="102"/>
@@ -5068,13 +5179,13 @@
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
       <c r="F19" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" s="99"/>
       <c r="H19" s="103"/>
       <c r="I19" s="102"/>
       <c r="J19" s="100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="102"/>
@@ -5094,13 +5205,13 @@
       </c>
       <c r="D20" s="99"/>
       <c r="F20" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G20" s="99"/>
       <c r="H20" s="103"/>
       <c r="I20" s="102"/>
       <c r="J20" s="100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K20" s="101"/>
       <c r="L20" s="102"/>
@@ -5119,16 +5230,16 @@
         <v>-</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G21" s="99"/>
       <c r="H21" s="103"/>
       <c r="I21" s="99"/>
       <c r="J21" s="100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K21" s="101"/>
       <c r="L21" s="102"/>
@@ -5148,13 +5259,13 @@
       </c>
       <c r="D22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G22" s="99"/>
       <c r="H22" s="103"/>
       <c r="I22" s="99"/>
       <c r="J22" s="89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K22" s="101"/>
       <c r="L22" s="102"/>
@@ -5174,13 +5285,13 @@
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="103"/>
       <c r="I23" s="99"/>
       <c r="J23" s="100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K23" s="101"/>
       <c r="L23" s="102"/>
@@ -5200,18 +5311,18 @@
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F24" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G24" s="99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="99"/>
       <c r="J24" s="100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" s="101"/>
       <c r="L24" s="102"/>
@@ -5232,13 +5343,13 @@
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="103"/>
       <c r="I25" s="99"/>
       <c r="J25" s="100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K25" s="101"/>
       <c r="L25" s="102"/>
@@ -5259,13 +5370,13 @@
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
       <c r="F26" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="103"/>
       <c r="I26" s="99"/>
       <c r="J26" s="100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" s="101"/>
       <c r="L26" s="102"/>
@@ -5286,13 +5397,13 @@
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
       <c r="F27" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G27" s="99"/>
       <c r="H27" s="103"/>
       <c r="I27" s="99"/>
       <c r="J27" s="100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K27" s="101"/>
       <c r="L27" s="102"/>
@@ -5312,10 +5423,10 @@
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G28" s="99"/>
       <c r="H28" s="103"/>
@@ -5339,7 +5450,7 @@
       </c>
       <c r="D29" s="99"/>
       <c r="F29" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="103"/>
@@ -5364,7 +5475,7 @@
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
       <c r="F30" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="103"/>
@@ -5388,10 +5499,10 @@
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="103"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -2470,7 +2470,11 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>EF,LF</t>
+          <t>LF,EF</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2523,7 +2527,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>EF,LF</t>
+          <t>LF,EF</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2548,96 +2552,104 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>E1,L2</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>E1,L2</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>23:59</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>+</t>
@@ -2656,7 +2668,11 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Lza, E</t>
@@ -2682,38 +2698,162 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>L0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>L0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="211" t="n">
@@ -4247,11 +4387,11 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AB21" activeCellId="0" sqref="AB21"/>
+      <selection pane="bottomRight" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -6777,134 +6917,54 @@
           <t>private_value</t>
         </is>
       </c>
-      <c r="B21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="C21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="D21" s="192">
-        <f>TRUE()</f>
-        <v/>
-      </c>
-      <c r="E21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="F21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="G21" s="193">
-        <f>TRUE()</f>
-        <v/>
-      </c>
-      <c r="H21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="I21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="J21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="K21" s="193">
-        <f>TRUE()</f>
-        <v/>
-      </c>
-      <c r="L21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="M21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="N21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="O21" s="192">
-        <f>TRUE()</f>
-        <v/>
-      </c>
-      <c r="P21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="Q21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="R21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="S21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="T21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="U21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="V21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="W21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="X21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="Y21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="Z21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AA21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AB21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AC21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AD21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AE21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AF21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="AG21" s="192">
-        <f>FALSE()</f>
-        <v/>
-      </c>
+      <c r="B21" s="192" t="n"/>
+      <c r="C21" s="192" t="n"/>
+      <c r="D21" s="192" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E21" s="192" t="n"/>
+      <c r="F21" s="192" t="n"/>
+      <c r="G21" s="193" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H21" s="192" t="n"/>
+      <c r="I21" s="192" t="n"/>
+      <c r="J21" s="192" t="n"/>
+      <c r="K21" s="193" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="L21" s="192" t="n"/>
+      <c r="M21" s="192" t="n"/>
+      <c r="N21" s="192" t="n"/>
+      <c r="O21" s="192" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="P21" s="192" t="n"/>
+      <c r="Q21" s="192" t="n"/>
+      <c r="R21" s="192" t="n"/>
+      <c r="S21" s="192" t="n"/>
+      <c r="T21" s="192" t="n"/>
+      <c r="U21" s="192" t="n"/>
+      <c r="V21" s="192" t="n"/>
+      <c r="W21" s="192" t="n"/>
+      <c r="X21" s="192" t="n"/>
+      <c r="Y21" s="192" t="n"/>
+      <c r="Z21" s="192" t="n"/>
+      <c r="AA21" s="192" t="n"/>
+      <c r="AB21" s="192" t="n"/>
+      <c r="AC21" s="192" t="n"/>
+      <c r="AD21" s="192" t="n"/>
+      <c r="AE21" s="192" t="n"/>
+      <c r="AF21" s="192" t="n"/>
+      <c r="AG21" s="192" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="117"/>
   </sheetData>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2705,145 +2705,149 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>L0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>L0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>21:45</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>L0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>can`t</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>can`t</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>23:05</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>23:40</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr">
         <is>
           <t>+</t>
@@ -2862,7 +2866,11 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -2888,38 +2896,166 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>E1,L0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>E0,L0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>21:16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>E2,L1</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>E1,L1</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>23:47</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="211" t="n">
@@ -2928,7 +3064,11 @@
       <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -2954,37 +3094,153 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>E1,L0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>E0,L0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>E1,L0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>L2,E3</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2994,7 +3250,11 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -3040,7 +3300,11 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,8 +22,8 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="168" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -864,7 +864,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,7 +1475,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="211" t="n">
+      <c r="A2" s="107" t="n">
         <v>45231</v>
       </c>
       <c r="B2" t="n">
@@ -1674,7 +1673,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="211" t="n">
+      <c r="A3" s="107" t="n">
         <v>45232</v>
       </c>
       <c r="B3" t="n">
@@ -1872,7 +1871,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="211" t="n">
+      <c r="A4" s="107" t="n">
         <v>45233</v>
       </c>
       <c r="B4" t="n">
@@ -2068,7 +2067,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="211" t="n">
+      <c r="A5" s="107" t="n">
         <v>45234</v>
       </c>
       <c r="B5" t="n">
@@ -2266,7 +2265,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="211" t="n">
+      <c r="A6" s="107" t="n">
         <v>45235</v>
       </c>
       <c r="B6" t="n">
@@ -2464,7 +2463,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="211" t="n">
+      <c r="A7" s="107" t="n">
         <v>45236</v>
       </c>
       <c r="B7" t="n">
@@ -2662,7 +2661,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="211" t="n">
+      <c r="A8" s="107" t="n">
         <v>45237</v>
       </c>
       <c r="B8" t="n">
@@ -2860,7 +2859,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="211" t="n">
+      <c r="A9" s="107" t="n">
         <v>45238</v>
       </c>
       <c r="B9" t="n">
@@ -3058,7 +3057,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="211" t="n">
+      <c r="A10" s="107" t="n">
         <v>45239</v>
       </c>
       <c r="B10" t="n">
@@ -3066,7 +3065,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3174,7 +3173,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>+</t>
@@ -3202,7 +3205,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>23:38</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -3235,26 +3238,30 @@
           <t>can`t</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="211" t="n">
+      <c r="A11" s="107" t="n">
         <v>45240</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -3280,45 +3287,149 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>L0,E1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>L1,E0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>21:59</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>L0,E1</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>L2,E4</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="211" t="n">
+      <c r="A12" s="107" t="n">
         <v>45241</v>
       </c>
       <c r="B12" t="n">
@@ -3384,7 +3495,7 @@
       <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="211" t="n">
+      <c r="A13" s="107" t="n">
         <v>45242</v>
       </c>
       <c r="B13" t="n">
@@ -3450,7 +3561,7 @@
       <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="211" t="n">
+      <c r="A14" s="107" t="n">
         <v>45243</v>
       </c>
       <c r="B14" t="n">
@@ -3516,7 +3627,7 @@
       <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="211" t="n">
+      <c r="A15" s="107" t="n">
         <v>45244</v>
       </c>
       <c r="B15" t="n">
@@ -3582,7 +3693,7 @@
       <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="211" t="n">
+      <c r="A16" s="107" t="n">
         <v>45245</v>
       </c>
       <c r="B16" t="n">
@@ -3648,7 +3759,7 @@
       <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="211" t="n">
+      <c r="A17" s="107" t="n">
         <v>45246</v>
       </c>
       <c r="B17" t="n">
@@ -3714,7 +3825,7 @@
       <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="211" t="n">
+      <c r="A18" s="107" t="n">
         <v>45247</v>
       </c>
       <c r="B18" t="n">
@@ -3780,7 +3891,7 @@
       <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="211" t="n">
+      <c r="A19" s="107" t="n">
         <v>45248</v>
       </c>
       <c r="B19" t="n">
@@ -3846,7 +3957,7 @@
       <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="211" t="n">
+      <c r="A20" s="107" t="n">
         <v>45249</v>
       </c>
       <c r="B20" t="n">
@@ -3912,7 +4023,7 @@
       <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="211" t="n">
+      <c r="A21" s="107" t="n">
         <v>45250</v>
       </c>
       <c r="B21" t="n">
@@ -3978,7 +4089,7 @@
       <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="211" t="n">
+      <c r="A22" s="107" t="n">
         <v>45251</v>
       </c>
       <c r="B22" t="n">
@@ -4044,7 +4155,7 @@
       <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="211" t="n">
+      <c r="A23" s="107" t="n">
         <v>45252</v>
       </c>
       <c r="B23" t="n">
@@ -4110,7 +4221,7 @@
       <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="211" t="n">
+      <c r="A24" s="107" t="n">
         <v>45253</v>
       </c>
       <c r="B24" t="n">
@@ -4176,7 +4287,7 @@
       <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="211" t="n">
+      <c r="A25" s="107" t="n">
         <v>45254</v>
       </c>
       <c r="B25" t="n">
@@ -4242,7 +4353,7 @@
       <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="211" t="n">
+      <c r="A26" s="107" t="n">
         <v>45255</v>
       </c>
       <c r="B26" t="n">
@@ -4308,7 +4419,7 @@
       <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="211" t="n">
+      <c r="A27" s="107" t="n">
         <v>45256</v>
       </c>
       <c r="B27" t="n">
@@ -4374,7 +4485,7 @@
       <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="211" t="n">
+      <c r="A28" s="107" t="n">
         <v>45257</v>
       </c>
       <c r="B28" t="n">
@@ -4440,7 +4551,7 @@
       <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="211" t="n">
+      <c r="A29" s="107" t="n">
         <v>45258</v>
       </c>
       <c r="B29" t="n">
@@ -4506,7 +4617,7 @@
       <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="211" t="n">
+      <c r="A30" s="107" t="n">
         <v>45259</v>
       </c>
       <c r="B30" t="n">
@@ -4572,7 +4683,7 @@
       <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="211" t="n">
+      <c r="A31" s="107" t="n">
         <v>45260</v>
       </c>
       <c r="B31" t="n">

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,8 +22,8 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="168" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -864,6 +864,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,7 +1476,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="107" t="n">
+      <c r="A2" s="211" t="n">
         <v>45231</v>
       </c>
       <c r="B2" t="n">
@@ -1673,7 +1674,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="107" t="n">
+      <c r="A3" s="211" t="n">
         <v>45232</v>
       </c>
       <c r="B3" t="n">
@@ -1871,7 +1872,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="107" t="n">
+      <c r="A4" s="211" t="n">
         <v>45233</v>
       </c>
       <c r="B4" t="n">
@@ -2067,7 +2068,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="107" t="n">
+      <c r="A5" s="211" t="n">
         <v>45234</v>
       </c>
       <c r="B5" t="n">
@@ -2265,7 +2266,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="107" t="n">
+      <c r="A6" s="211" t="n">
         <v>45235</v>
       </c>
       <c r="B6" t="n">
@@ -2463,7 +2464,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="107" t="n">
+      <c r="A7" s="211" t="n">
         <v>45236</v>
       </c>
       <c r="B7" t="n">
@@ -2661,7 +2662,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="107" t="n">
+      <c r="A8" s="211" t="n">
         <v>45237</v>
       </c>
       <c r="B8" t="n">
@@ -2859,7 +2860,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="107" t="n">
+      <c r="A9" s="211" t="n">
         <v>45238</v>
       </c>
       <c r="B9" t="n">
@@ -3057,7 +3058,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="107" t="n">
+      <c r="A10" s="211" t="n">
         <v>45239</v>
       </c>
       <c r="B10" t="n">
@@ -3255,7 +3256,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="107" t="n">
+      <c r="A11" s="211" t="n">
         <v>45240</v>
       </c>
       <c r="B11" t="n">
@@ -3393,7 +3394,11 @@
           <t>G</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
           <t>+</t>
@@ -3429,7 +3434,7 @@
       <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="107" t="n">
+      <c r="A12" s="211" t="n">
         <v>45241</v>
       </c>
       <c r="B12" t="n">
@@ -3495,7 +3500,7 @@
       <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="107" t="n">
+      <c r="A13" s="211" t="n">
         <v>45242</v>
       </c>
       <c r="B13" t="n">
@@ -3561,7 +3566,7 @@
       <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="107" t="n">
+      <c r="A14" s="211" t="n">
         <v>45243</v>
       </c>
       <c r="B14" t="n">
@@ -3627,7 +3632,7 @@
       <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="107" t="n">
+      <c r="A15" s="211" t="n">
         <v>45244</v>
       </c>
       <c r="B15" t="n">
@@ -3693,7 +3698,7 @@
       <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="107" t="n">
+      <c r="A16" s="211" t="n">
         <v>45245</v>
       </c>
       <c r="B16" t="n">
@@ -3759,7 +3764,7 @@
       <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="107" t="n">
+      <c r="A17" s="211" t="n">
         <v>45246</v>
       </c>
       <c r="B17" t="n">
@@ -3825,7 +3830,7 @@
       <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="107" t="n">
+      <c r="A18" s="211" t="n">
         <v>45247</v>
       </c>
       <c r="B18" t="n">
@@ -3891,7 +3896,7 @@
       <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="107" t="n">
+      <c r="A19" s="211" t="n">
         <v>45248</v>
       </c>
       <c r="B19" t="n">
@@ -3957,7 +3962,7 @@
       <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="107" t="n">
+      <c r="A20" s="211" t="n">
         <v>45249</v>
       </c>
       <c r="B20" t="n">
@@ -4023,7 +4028,7 @@
       <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="107" t="n">
+      <c r="A21" s="211" t="n">
         <v>45250</v>
       </c>
       <c r="B21" t="n">
@@ -4089,7 +4094,7 @@
       <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="107" t="n">
+      <c r="A22" s="211" t="n">
         <v>45251</v>
       </c>
       <c r="B22" t="n">
@@ -4155,7 +4160,7 @@
       <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="107" t="n">
+      <c r="A23" s="211" t="n">
         <v>45252</v>
       </c>
       <c r="B23" t="n">
@@ -4221,7 +4226,7 @@
       <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="107" t="n">
+      <c r="A24" s="211" t="n">
         <v>45253</v>
       </c>
       <c r="B24" t="n">
@@ -4287,7 +4292,7 @@
       <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="107" t="n">
+      <c r="A25" s="211" t="n">
         <v>45254</v>
       </c>
       <c r="B25" t="n">
@@ -4353,7 +4358,7 @@
       <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="107" t="n">
+      <c r="A26" s="211" t="n">
         <v>45255</v>
       </c>
       <c r="B26" t="n">
@@ -4419,7 +4424,7 @@
       <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="107" t="n">
+      <c r="A27" s="211" t="n">
         <v>45256</v>
       </c>
       <c r="B27" t="n">
@@ -4485,7 +4490,7 @@
       <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="107" t="n">
+      <c r="A28" s="211" t="n">
         <v>45257</v>
       </c>
       <c r="B28" t="n">
@@ -4551,7 +4556,7 @@
       <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="107" t="n">
+      <c r="A29" s="211" t="n">
         <v>45258</v>
       </c>
       <c r="B29" t="n">
@@ -4617,7 +4622,7 @@
       <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="107" t="n">
+      <c r="A30" s="211" t="n">
         <v>45259</v>
       </c>
       <c r="B30" t="n">
@@ -4683,7 +4688,7 @@
       <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="107" t="n">
+      <c r="A31" s="211" t="n">
         <v>45260</v>
       </c>
       <c r="B31" t="n">

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="271">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -351,9 +351,6 @@
     <t xml:space="preserve">23:38</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">L0,E1</t>
   </si>
   <si>
@@ -364,6 +361,18 @@
   </si>
   <si>
     <t xml:space="preserve">00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lcan`t,Ecan`t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L0,E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2,E2</t>
   </si>
   <si>
     <t xml:space="preserve">Ed24</t>
@@ -1604,8 +1613,8 @@
   </sheetPr>
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB13" activeCellId="0" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2838,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>64</v>
@@ -2862,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>105</v>
@@ -2871,7 +2880,7 @@
         <v>47</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>74</v>
@@ -2883,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>47</v>
@@ -2895,7 +2904,7 @@
         <v>61</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W11" s="0" t="s">
         <v>47</v>
@@ -2922,7 +2931,7 @@
         <v>59</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF11" s="0" t="s">
         <v>47</v>
@@ -2942,8 +2951,14 @@
       <c r="AK11" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="AL11" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="AM11" s="0" t="s">
         <v>47</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,6 +2968,9 @@
       <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="0" t="s">
         <v>41</v>
       </c>
@@ -2960,19 +2978,109 @@
         <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="Z12" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="AA12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="AC12" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,6 +3105,96 @@
       <c r="H13" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="I13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -3058,7 +3256,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>67</v>
@@ -3104,7 +3302,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>67</v>
@@ -3334,7 +3532,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>67</v>
@@ -3403,7 +3601,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>67</v>
@@ -3472,7 +3670,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -3573,305 +3771,305 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="Q2" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>133</v>
-      </c>
       <c r="AD2" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC3" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AD4" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3879,133 +4077,133 @@
         <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="36"/>
       <c r="K5" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N6" s="43"/>
       <c r="O6" s="45"/>
@@ -4014,39 +4212,39 @@
       <c r="R6" s="46"/>
       <c r="S6" s="43"/>
       <c r="T6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U6" s="47"/>
       <c r="V6" s="45"/>
       <c r="W6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="X6" s="47"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="48"/>
       <c r="AA6" s="49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD6" s="45"/>
       <c r="AE6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AF6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51"/>
@@ -4066,511 +4264,511 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="55"/>
       <c r="S7" s="56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="T7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X7" s="57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z7" s="58" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA7" s="56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AE7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF7" s="57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG7" s="58" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="T8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="U8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="V8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="X8" s="54"/>
       <c r="Y8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Z8" s="53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AA8" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AE8" s="54"/>
       <c r="AF8" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG8" s="53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R9" s="66" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="U9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="W9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="X9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA9" s="63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AB9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AD9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AF9" s="65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG9" s="64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="67" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K10" s="67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R10" s="73" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="V10" s="72"/>
       <c r="W10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="X10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Y10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Z10" s="71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AA10" s="70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AB10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AC10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD10" s="72"/>
       <c r="AE10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AF10" s="72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG10" s="71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="75" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="78" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R11" s="80" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S11" s="77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U11" s="79"/>
       <c r="V11" s="79"/>
       <c r="W11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Y11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Z11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA11" s="77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB11" s="77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AC11" s="79"/>
       <c r="AD11" s="79"/>
       <c r="AE11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG11" s="79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="76"/>
       <c r="D12" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="75" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M12" s="78"/>
       <c r="N12" s="79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S12" s="77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="T12" s="77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="U12" s="79"/>
       <c r="V12" s="79"/>
       <c r="W12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="X12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Y12" s="79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Z12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AA12" s="77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AB12" s="77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC12" s="79"/>
       <c r="AD12" s="79"/>
       <c r="AE12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF12" s="79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG12" s="79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="76"/>
@@ -4653,28 +4851,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76"/>
       <c r="D14" s="74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H14" s="74" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="74"/>
       <c r="J14" s="74" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="75" t="n">
@@ -4682,341 +4880,341 @@
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O14" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P14" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R14" s="80" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S14" s="77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T14" s="77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
       <c r="W14" s="79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="X14" s="79" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z14" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AB14" s="77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC14" s="79"/>
       <c r="AD14" s="79"/>
       <c r="AE14" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF14" s="79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG14" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="AF15" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AG16" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P17" s="83" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="83" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R17" s="83" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AA17" s="83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AB17" s="83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AC17" s="83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AD17" s="83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF17" s="83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M18" s="84" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P18" s="84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="84" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R18" s="84" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AC18" s="83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AD18" s="84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG18" s="84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="O19" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T19" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="U19" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="O19" s="85" t="s">
+      <c r="AA19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="T19" s="85" t="s">
+      <c r="AB19" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC19" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="U19" s="85" t="s">
+      <c r="AD19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG19" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB19" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC19" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
@@ -5027,7 +5225,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
@@ -5139,31 +5337,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F1" s="91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I1" s="91" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K1" s="95" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5182,12 +5380,12 @@
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
       <c r="F2" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="100" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K2" s="101"/>
       <c r="L2" s="102"/>
@@ -5207,19 +5405,19 @@
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H3" s="103" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I3" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K3" s="101"/>
       <c r="L3" s="102"/>
@@ -5239,16 +5437,16 @@
       </c>
       <c r="D4" s="99"/>
       <c r="E4" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G4" s="99"/>
       <c r="H4" s="103"/>
       <c r="I4" s="99"/>
       <c r="J4" s="100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="102"/>
@@ -5269,13 +5467,13 @@
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="103"/>
       <c r="I5" s="99"/>
       <c r="J5" s="100" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="102"/>
@@ -5296,13 +5494,13 @@
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
       <c r="F6" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G6" s="99"/>
       <c r="H6" s="103"/>
       <c r="I6" s="99"/>
       <c r="J6" s="100" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="102"/>
@@ -5323,13 +5521,13 @@
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G7" s="99"/>
       <c r="H7" s="103"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K7" s="101"/>
       <c r="L7" s="102"/>
@@ -5348,16 +5546,16 @@
         <v>Ed24(1)</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="103"/>
       <c r="I8" s="102"/>
       <c r="J8" s="105" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="102"/>
@@ -5378,13 +5576,13 @@
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
       <c r="F9" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="102"/>
       <c r="J9" s="105" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K9" s="101"/>
       <c r="L9" s="102"/>
@@ -5405,13 +5603,13 @@
       <c r="D10" s="99"/>
       <c r="E10" s="99"/>
       <c r="F10" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="103"/>
       <c r="I10" s="102"/>
       <c r="J10" s="105" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K10" s="101"/>
       <c r="L10" s="102"/>
@@ -5431,18 +5629,18 @@
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H11" s="103"/>
       <c r="I11" s="102"/>
       <c r="J11" s="89" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K11" s="101"/>
       <c r="L11" s="102"/>
@@ -5458,17 +5656,17 @@
       </c>
       <c r="C12" s="91" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
-        <v>Ed24</v>
+        <v>Ed24(1)</v>
       </c>
       <c r="D12" s="99"/>
       <c r="F12" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G12" s="99"/>
       <c r="H12" s="103"/>
       <c r="I12" s="102"/>
       <c r="J12" s="105" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K12" s="101"/>
       <c r="L12" s="102"/>
@@ -5489,13 +5687,13 @@
       <c r="D13" s="99"/>
       <c r="E13" s="99"/>
       <c r="F13" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
       <c r="J13" s="105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K13" s="101"/>
       <c r="L13" s="102"/>
@@ -5515,16 +5713,16 @@
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="89" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G14" s="99"/>
       <c r="H14" s="103"/>
       <c r="I14" s="102"/>
       <c r="J14" s="89" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K14" s="101"/>
       <c r="L14" s="102"/>
@@ -5545,13 +5743,13 @@
       <c r="D15" s="99"/>
       <c r="E15" s="99"/>
       <c r="F15" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G15" s="99"/>
       <c r="H15" s="103"/>
       <c r="I15" s="102"/>
       <c r="J15" s="105" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K15" s="95"/>
       <c r="L15" s="96"/>
@@ -5572,7 +5770,7 @@
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="103"/>
@@ -5596,19 +5794,19 @@
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H17" s="103" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K17" s="101"/>
       <c r="L17" s="102"/>
@@ -5628,13 +5826,13 @@
       </c>
       <c r="D18" s="99"/>
       <c r="F18" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G18" s="99"/>
       <c r="H18" s="103"/>
       <c r="I18" s="102"/>
       <c r="J18" s="91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K18" s="101"/>
       <c r="L18" s="102"/>
@@ -5655,13 +5853,13 @@
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
       <c r="F19" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G19" s="99"/>
       <c r="H19" s="103"/>
       <c r="I19" s="102"/>
       <c r="J19" s="100" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="102"/>
@@ -5681,13 +5879,13 @@
       </c>
       <c r="D20" s="99"/>
       <c r="F20" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G20" s="99"/>
       <c r="H20" s="103"/>
       <c r="I20" s="102"/>
       <c r="J20" s="100" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K20" s="101"/>
       <c r="L20" s="102"/>
@@ -5706,16 +5904,16 @@
         <v>-</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F21" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G21" s="99"/>
       <c r="H21" s="103"/>
       <c r="I21" s="99"/>
       <c r="J21" s="100" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K21" s="101"/>
       <c r="L21" s="102"/>
@@ -5735,13 +5933,13 @@
       </c>
       <c r="D22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G22" s="99"/>
       <c r="H22" s="103"/>
       <c r="I22" s="99"/>
       <c r="J22" s="89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K22" s="101"/>
       <c r="L22" s="102"/>
@@ -5761,13 +5959,13 @@
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="103"/>
       <c r="I23" s="99"/>
       <c r="J23" s="100" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K23" s="101"/>
       <c r="L23" s="102"/>
@@ -5787,18 +5985,18 @@
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F24" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G24" s="99" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="99"/>
       <c r="J24" s="100" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K24" s="101"/>
       <c r="L24" s="102"/>
@@ -5819,13 +6017,13 @@
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="103"/>
       <c r="I25" s="99"/>
       <c r="J25" s="100" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K25" s="101"/>
       <c r="L25" s="102"/>
@@ -5846,13 +6044,13 @@
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
       <c r="F26" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="103"/>
       <c r="I26" s="99"/>
       <c r="J26" s="100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K26" s="101"/>
       <c r="L26" s="102"/>
@@ -5873,13 +6071,13 @@
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
       <c r="F27" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G27" s="99"/>
       <c r="H27" s="103"/>
       <c r="I27" s="99"/>
       <c r="J27" s="100" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K27" s="101"/>
       <c r="L27" s="102"/>
@@ -5899,10 +6097,10 @@
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G28" s="99"/>
       <c r="H28" s="103"/>
@@ -5926,7 +6124,7 @@
       </c>
       <c r="D29" s="99"/>
       <c r="F29" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="103"/>
@@ -5951,7 +6149,7 @@
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
       <c r="F30" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="103"/>
@@ -5975,10 +6173,10 @@
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="103"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,8 +22,8 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="168" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -568,7 +568,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -861,6 +861,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,7 +1492,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="109" t="n">
+      <c r="A2" s="208" t="n">
         <v>45231</v>
       </c>
       <c r="B2" t="n">
@@ -1694,7 +1695,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="109" t="n">
+      <c r="A3" s="208" t="n">
         <v>45232</v>
       </c>
       <c r="B3" t="n">
@@ -1897,7 +1898,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="109" t="n">
+      <c r="A4" s="208" t="n">
         <v>45233</v>
       </c>
       <c r="B4" t="n">
@@ -2098,7 +2099,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="109" t="n">
+      <c r="A5" s="208" t="n">
         <v>45234</v>
       </c>
       <c r="B5" t="n">
@@ -2301,7 +2302,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="109" t="n">
+      <c r="A6" s="208" t="n">
         <v>45235</v>
       </c>
       <c r="B6" t="n">
@@ -2504,7 +2505,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="109" t="n">
+      <c r="A7" s="208" t="n">
         <v>45236</v>
       </c>
       <c r="B7" t="n">
@@ -2707,7 +2708,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="109" t="n">
+      <c r="A8" s="208" t="n">
         <v>45237</v>
       </c>
       <c r="B8" t="n">
@@ -2910,7 +2911,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="109" t="n">
+      <c r="A9" s="208" t="n">
         <v>45238</v>
       </c>
       <c r="B9" t="n">
@@ -3113,7 +3114,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="109" t="n">
+      <c r="A10" s="208" t="n">
         <v>45239</v>
       </c>
       <c r="B10" t="n">
@@ -3316,7 +3317,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="109" t="n">
+      <c r="A11" s="208" t="n">
         <v>45240</v>
       </c>
       <c r="B11" t="n">
@@ -3519,7 +3520,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="109" t="n">
+      <c r="A12" s="208" t="n">
         <v>45241</v>
       </c>
       <c r="B12" t="n">
@@ -3722,7 +3723,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="109" t="n">
+      <c r="A13" s="208" t="n">
         <v>45242</v>
       </c>
       <c r="B13" t="n">
@@ -3925,7 +3926,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="109" t="n">
+      <c r="A14" s="208" t="n">
         <v>45243</v>
       </c>
       <c r="B14" t="n">
@@ -4128,7 +4129,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="109" t="n">
+      <c r="A15" s="208" t="n">
         <v>45244</v>
       </c>
       <c r="B15" t="n">
@@ -4227,7 +4228,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>L0</t>
+          <t>L0,E3</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -4240,7 +4241,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>9</t>
@@ -4266,13 +4271,21 @@
           <t>G</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>23:53</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>9</t>
@@ -4311,7 +4324,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="109" t="n">
+      <c r="A16" s="208" t="n">
         <v>45245</v>
       </c>
       <c r="B16" t="n">
@@ -4378,7 +4391,7 @@
       <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="109" t="n">
+      <c r="A17" s="208" t="n">
         <v>45246</v>
       </c>
       <c r="B17" t="n">
@@ -4445,7 +4458,7 @@
       <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="109" t="n">
+      <c r="A18" s="208" t="n">
         <v>45247</v>
       </c>
       <c r="B18" t="n">
@@ -4512,7 +4525,7 @@
       <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="109" t="n">
+      <c r="A19" s="208" t="n">
         <v>45248</v>
       </c>
       <c r="B19" t="n">
@@ -4579,7 +4592,7 @@
       <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="109" t="n">
+      <c r="A20" s="208" t="n">
         <v>45249</v>
       </c>
       <c r="B20" t="n">
@@ -4646,7 +4659,7 @@
       <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="109" t="n">
+      <c r="A21" s="208" t="n">
         <v>45250</v>
       </c>
       <c r="B21" t="n">
@@ -4713,7 +4726,7 @@
       <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="109" t="n">
+      <c r="A22" s="208" t="n">
         <v>45251</v>
       </c>
       <c r="B22" t="n">
@@ -4780,7 +4793,7 @@
       <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="109" t="n">
+      <c r="A23" s="208" t="n">
         <v>45252</v>
       </c>
       <c r="B23" t="n">
@@ -4847,7 +4860,7 @@
       <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="109" t="n">
+      <c r="A24" s="208" t="n">
         <v>45253</v>
       </c>
       <c r="B24" t="n">
@@ -4914,7 +4927,7 @@
       <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="109" t="n">
+      <c r="A25" s="208" t="n">
         <v>45254</v>
       </c>
       <c r="B25" t="n">
@@ -4981,7 +4994,7 @@
       <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="109" t="n">
+      <c r="A26" s="208" t="n">
         <v>45255</v>
       </c>
       <c r="B26" t="n">
@@ -5048,7 +5061,7 @@
       <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="109" t="n">
+      <c r="A27" s="208" t="n">
         <v>45256</v>
       </c>
       <c r="B27" t="n">
@@ -5115,7 +5128,7 @@
       <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="109" t="n">
+      <c r="A28" s="208" t="n">
         <v>45257</v>
       </c>
       <c r="B28" t="n">
@@ -5182,7 +5195,7 @@
       <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="109" t="n">
+      <c r="A29" s="208" t="n">
         <v>45258</v>
       </c>
       <c r="B29" t="n">
@@ -5249,7 +5262,7 @@
       <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="109" t="n">
+      <c r="A30" s="208" t="n">
         <v>45259</v>
       </c>
       <c r="B30" t="n">
@@ -5316,7 +5329,7 @@
       <c r="AO30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="109" t="n">
+      <c r="A31" s="208" t="n">
         <v>45260</v>
       </c>
       <c r="B31" t="n">

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -4443,7 +4443,11 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -4135,7 +4135,11 @@
       <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>ELza</t>
@@ -4330,7 +4334,11 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Lza, E</t>
@@ -4373,14 +4381,46 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>can`t</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>23:09</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -1665,10 +1665,10 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="288">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -384,9 +384,6 @@
     <t xml:space="preserve">E3,L2</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">21:30</t>
   </si>
   <si>
@@ -396,10 +393,31 @@
     <t xml:space="preserve">23:53</t>
   </si>
   <si>
+    <t xml:space="preserve">23:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lhd, Ehd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ld, Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ed24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:09</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>
@@ -1665,7 +1683,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3428,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>65</v>
@@ -3455,7 +3473,7 @@
         <v>101</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>48</v>
@@ -3485,7 +3503,7 @@
         <v>47</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W15" s="0" t="s">
         <v>48</v>
@@ -3512,7 +3530,7 @@
         <v>60</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF15" s="0" t="s">
         <v>48</v>
@@ -3531,6 +3549,9 @@
       </c>
       <c r="AK15" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="AM15" s="0" t="s">
         <v>48</v>
@@ -3550,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>42</v>
@@ -3559,7 +3580,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>68</v>
@@ -3567,6 +3588,57 @@
       <c r="H16" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="Z16" s="0" t="s">
         <v>56</v>
       </c>
@@ -3583,13 +3655,37 @@
         <v>60</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF16" s="0" t="s">
         <v>48</v>
       </c>
       <c r="AG16" s="0" t="s">
         <v>63</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,6 +3695,9 @@
       <c r="B17" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="0" t="s">
         <v>65</v>
       </c>
@@ -3613,6 +3712,105 @@
       </c>
       <c r="H17" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,6 +3820,9 @@
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="0" t="s">
         <v>42</v>
       </c>
@@ -3629,13 +3830,112 @@
         <v>43</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3949,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>46</v>
@@ -3659,6 +3959,105 @@
       </c>
       <c r="H19" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +4071,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>46</v>
@@ -3695,13 +4094,13 @@
         <v>65</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>46</v>
@@ -3859,7 +4258,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>68</v>
@@ -3928,7 +4327,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>68</v>
@@ -3998,7 +4397,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -4102,314 +4501,314 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH2" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AC3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AH3" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Z4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AC4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AG4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AH4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4417,136 +4816,136 @@
         <v>6</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="31"/>
       <c r="K5" s="26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="W5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="X5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Y5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AA5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AB5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AD5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AE5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AF5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH5" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N6" s="39"/>
       <c r="O6" s="41"/>
@@ -4555,42 +4954,42 @@
       <c r="R6" s="42"/>
       <c r="S6" s="39"/>
       <c r="T6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U6" s="43"/>
       <c r="V6" s="41"/>
       <c r="W6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="45" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC6" s="41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AD6" s="41"/>
       <c r="AE6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AG6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AH6" s="43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
@@ -4610,525 +5009,525 @@
       <c r="Q7" s="50"/>
       <c r="R7" s="52"/>
       <c r="S7" s="53" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="U7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="W7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="X7" s="54" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Y7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="55" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AA7" s="53" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AB7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AC7" s="54"/>
       <c r="AD7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AE7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="55" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH7" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N8" s="57" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="R8" s="59" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="S8" s="57" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="T8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="U8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="V8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="W8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="X8" s="58"/>
       <c r="Y8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Z8" s="56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AA8" s="57" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AB8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AD8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AE8" s="58"/>
       <c r="AF8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG8" s="56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH8" s="58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="60" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M9" s="65" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N9" s="64" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="R9" s="67" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S9" s="64" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="T9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="U9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="V9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="W9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="X9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Y9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Z9" s="65" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AA9" s="64" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AB9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF9" s="66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG9" s="65" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AH9" s="66" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="68" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N10" s="71" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R10" s="74" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S10" s="71" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="V10" s="73"/>
       <c r="W10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="X10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Y10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Z10" s="72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AA10" s="71" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AB10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AD10" s="73"/>
       <c r="AE10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AG10" s="72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AH10" s="73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
       <c r="D11" s="75" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K11" s="75"/>
       <c r="L11" s="76" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M11" s="79"/>
       <c r="N11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="79" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="R11" s="81" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="S11" s="78" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="T11" s="78" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
       <c r="W11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Y11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Z11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AA11" s="78" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AB11" s="78" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC11" s="80"/>
       <c r="AD11" s="80"/>
       <c r="AE11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AF11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AG11" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AH11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="77"/>
       <c r="D12" s="75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K12" s="75"/>
       <c r="L12" s="76" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M12" s="79"/>
       <c r="N12" s="80" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="79" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
       <c r="W12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="X12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Y12" s="80" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Z12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AA12" s="78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AB12" s="78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC12" s="80"/>
       <c r="AD12" s="80"/>
       <c r="AE12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF12" s="80" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AG12" s="80" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AH12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="77"/>
@@ -5212,28 +5611,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="75" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
       <c r="D14" s="75" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E14" s="75" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H14" s="75" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K14" s="75"/>
       <c r="L14" s="76" t="n">
@@ -5241,345 +5640,345 @@
       </c>
       <c r="M14" s="79"/>
       <c r="N14" s="80" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P14" s="80" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="79" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="R14" s="81" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S14" s="78" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="T14" s="78" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="U14" s="80"/>
       <c r="V14" s="80"/>
       <c r="W14" s="80" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="X14" s="80" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="80" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Z14" s="80" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AA14" s="78" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AB14" s="78" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC14" s="80"/>
       <c r="AD14" s="80"/>
       <c r="AE14" s="80" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AF14" s="80" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG14" s="80" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AH14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Y15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="AF15" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AG16" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L17" s="84" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M17" s="84" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N17" s="84" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O17" s="84" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="84" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="84" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="R17" s="84" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA17" s="84" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB17" s="84" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AC17" s="84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AD17" s="84" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AF17" s="84" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AH17" s="84" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K18" s="84" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O18" s="84" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AC18" s="84" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AD18" s="85" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AG18" s="85" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N19" s="86" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O19" s="86" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="U19" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="AA19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AB19" s="86" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AC19" s="86" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AH19" s="86" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="N20" s="86"/>
       <c r="O20" s="86"/>
@@ -5591,7 +5990,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
@@ -5709,31 +6108,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J1" s="95" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L1" s="97" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5752,12 +6151,12 @@
       <c r="D2" s="100"/>
       <c r="E2" s="100"/>
       <c r="F2" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G2" s="100"/>
       <c r="I2" s="100"/>
       <c r="J2" s="101" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K2" s="102"/>
       <c r="L2" s="103"/>
@@ -5777,19 +6176,19 @@
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H3" s="104" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K3" s="102"/>
       <c r="L3" s="103"/>
@@ -5809,16 +6208,16 @@
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="90" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G4" s="100"/>
       <c r="H4" s="104"/>
       <c r="I4" s="100"/>
       <c r="J4" s="101" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="103"/>
@@ -5839,13 +6238,13 @@
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
       <c r="F5" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G5" s="100"/>
       <c r="H5" s="104"/>
       <c r="I5" s="100"/>
       <c r="J5" s="101" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="103"/>
@@ -5866,13 +6265,13 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="104"/>
       <c r="I6" s="100"/>
       <c r="J6" s="101" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="103"/>
@@ -5893,13 +6292,13 @@
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="104"/>
       <c r="I7" s="100"/>
       <c r="J7" s="101" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="103"/>
@@ -5918,16 +6317,16 @@
         <v>Ed24(1)</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G8" s="100"/>
       <c r="H8" s="104"/>
       <c r="I8" s="103"/>
       <c r="J8" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="103"/>
@@ -5948,13 +6347,13 @@
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="104"/>
       <c r="I9" s="103"/>
       <c r="J9" s="106" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="103"/>
@@ -5975,13 +6374,13 @@
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="104"/>
       <c r="I10" s="103"/>
       <c r="J10" s="106" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="103"/>
@@ -6001,18 +6400,18 @@
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G11" s="100" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H11" s="104"/>
       <c r="I11" s="103"/>
       <c r="J11" s="90" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="103"/>
@@ -6032,13 +6431,13 @@
       </c>
       <c r="D12" s="100"/>
       <c r="F12" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="104"/>
       <c r="I12" s="103"/>
       <c r="J12" s="106" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="103"/>
@@ -6059,13 +6458,13 @@
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G13" s="100"/>
       <c r="H13" s="104"/>
       <c r="I13" s="103"/>
       <c r="J13" s="106" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="103"/>
@@ -6085,16 +6484,16 @@
       </c>
       <c r="D14" s="100"/>
       <c r="E14" s="90" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G14" s="100"/>
       <c r="H14" s="104"/>
       <c r="I14" s="103"/>
       <c r="J14" s="90" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="103"/>
@@ -6115,13 +6514,13 @@
       <c r="D15" s="100"/>
       <c r="E15" s="100"/>
       <c r="F15" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="104"/>
       <c r="I15" s="103"/>
       <c r="J15" s="106" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K15" s="96"/>
       <c r="L15" s="97"/>
@@ -6137,12 +6536,12 @@
       </c>
       <c r="C16" s="92" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
-        <v>Ed24</v>
+        <v>Ed24(0)</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G16" s="100"/>
       <c r="H16" s="104"/>
@@ -6166,19 +6565,19 @@
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F17" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G17" s="100" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K17" s="102"/>
       <c r="L17" s="103"/>
@@ -6194,17 +6593,17 @@
       </c>
       <c r="C18" s="92" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
-        <v>Ed24</v>
+        <v>Ed24(0)</v>
       </c>
       <c r="D18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="104"/>
       <c r="I18" s="103"/>
       <c r="J18" s="92" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K18" s="102"/>
       <c r="L18" s="103"/>
@@ -6225,13 +6624,13 @@
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G19" s="100"/>
       <c r="H19" s="104"/>
       <c r="I19" s="103"/>
       <c r="J19" s="101" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K19" s="102"/>
       <c r="L19" s="103"/>
@@ -6251,13 +6650,13 @@
       </c>
       <c r="D20" s="100"/>
       <c r="F20" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G20" s="100"/>
       <c r="H20" s="104"/>
       <c r="I20" s="103"/>
       <c r="J20" s="101" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K20" s="102"/>
       <c r="L20" s="103"/>
@@ -6276,16 +6675,16 @@
         <v>-</v>
       </c>
       <c r="E21" s="100" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G21" s="100"/>
       <c r="H21" s="104"/>
       <c r="I21" s="100"/>
       <c r="J21" s="101" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K21" s="102"/>
       <c r="L21" s="103"/>
@@ -6305,13 +6704,13 @@
       </c>
       <c r="D22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G22" s="100"/>
       <c r="H22" s="104"/>
       <c r="I22" s="100"/>
       <c r="J22" s="90" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K22" s="102"/>
       <c r="L22" s="103"/>
@@ -6331,13 +6730,13 @@
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G23" s="100"/>
       <c r="H23" s="104"/>
       <c r="I23" s="100"/>
       <c r="J23" s="101" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K23" s="102"/>
       <c r="L23" s="103"/>
@@ -6357,18 +6756,18 @@
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="100"/>
       <c r="J24" s="101" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K24" s="102"/>
       <c r="L24" s="103"/>
@@ -6389,13 +6788,13 @@
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G25" s="100"/>
       <c r="H25" s="104"/>
       <c r="I25" s="100"/>
       <c r="J25" s="101" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K25" s="102"/>
       <c r="L25" s="103"/>
@@ -6416,13 +6815,13 @@
       <c r="D26" s="100"/>
       <c r="E26" s="100"/>
       <c r="F26" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G26" s="100"/>
       <c r="H26" s="104"/>
       <c r="I26" s="100"/>
       <c r="J26" s="101" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K26" s="102"/>
       <c r="L26" s="103"/>
@@ -6443,13 +6842,13 @@
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G27" s="100"/>
       <c r="H27" s="104"/>
       <c r="I27" s="100"/>
       <c r="J27" s="101" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K27" s="102"/>
       <c r="L27" s="103"/>
@@ -6469,10 +6868,10 @@
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G28" s="100"/>
       <c r="H28" s="104"/>
@@ -6496,7 +6895,7 @@
       </c>
       <c r="D29" s="100"/>
       <c r="F29" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G29" s="100"/>
       <c r="H29" s="104"/>
@@ -6521,7 +6920,7 @@
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G30" s="100"/>
       <c r="H30" s="104"/>
@@ -6545,10 +6944,10 @@
       </c>
       <c r="D31" s="100"/>
       <c r="E31" s="100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F31" s="100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G31" s="100"/>
       <c r="H31" s="104"/>

--- a/months/nov23/nov23.xlsx
+++ b/months/nov23/nov23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="290">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -405,6 +405,9 @@
     <t xml:space="preserve">21:48</t>
   </si>
   <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lhd, Ehd</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">23:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">Ld, Ed</t>
@@ -1683,7 +1689,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3945,11 +3951,14 @@
       <c r="B19" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>127</v>
+      </c>
       <c r="D19" s="0" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>46</v>
@@ -4027,7 +4036,7 @@
         <v>60</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF19" s="0" t="s">
         <v>46</v>
@@ -4048,7 +4057,7 @@
         <v>46</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM19" s="0" t="s">
         <v>46</v>
@@ -4067,11 +4076,14 @@
       <c r="B20" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>131</v>
+      </c>
       <c r="D20" s="0" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>46</v>
@@ -4094,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>46</v>
@@ -4258,7 +4270,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>68</v>
@@ -4327,7 +4339,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>68</v>
@@ -4397,7 +4409,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -4501,314 +4513,314 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH2" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="AA3" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AD3" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="AE3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y4" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH4" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4816,136 +4828,136 @@
         <v>6</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="31"/>
       <c r="K5" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AB5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AE5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AH5" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N6" s="39"/>
       <c r="O6" s="41"/>
@@ -4954,42 +4966,42 @@
       <c r="R6" s="42"/>
       <c r="S6" s="39"/>
       <c r="T6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U6" s="43"/>
       <c r="V6" s="41"/>
       <c r="W6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC6" s="41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AD6" s="41"/>
       <c r="AE6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH6" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
@@ -5009,525 +5021,525 @@
       <c r="Q7" s="50"/>
       <c r="R7" s="52"/>
       <c r="S7" s="53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="U7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X7" s="54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z7" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AA7" s="53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AB7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC7" s="54"/>
       <c r="AD7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AE7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG7" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AH7" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N8" s="57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R8" s="59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S8" s="57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="T8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="U8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X8" s="58"/>
       <c r="Y8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z8" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA8" s="57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AB8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AD8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AE8" s="58"/>
       <c r="AF8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG8" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH8" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M9" s="65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N9" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="T9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="U9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="W9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="X9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA9" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH9" s="66" t="s">
         <v>176</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="P9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="S9" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="T9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="U9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="V9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="W9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="X9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z9" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA9" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF9" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG9" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH9" s="66" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N10" s="71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R10" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S10" s="71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V10" s="73"/>
       <c r="W10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Y10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z10" s="72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA10" s="71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AD10" s="73"/>
       <c r="AE10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG10" s="72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH10" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
       <c r="D11" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K11" s="75"/>
       <c r="L11" s="76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M11" s="79"/>
       <c r="N11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R11" s="81" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S11" s="78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="T11" s="78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
       <c r="W11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Z11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AA11" s="78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AB11" s="78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC11" s="80"/>
       <c r="AD11" s="80"/>
       <c r="AE11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG11" s="80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AH11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="77"/>
       <c r="D12" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K12" s="75"/>
       <c r="L12" s="76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M12" s="79"/>
       <c r="N12" s="80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
       <c r="W12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y12" s="80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AA12" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB12" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC12" s="80"/>
       <c r="AD12" s="80"/>
       <c r="AE12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF12" s="80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG12" s="80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AH12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="77"/>
@@ -5611,28 +5623,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
       <c r="D14" s="75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E14" s="75" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H14" s="75" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" s="75"/>
       <c r="L14" s="76" t="n">
@@ -5640,345 +5652,345 @@
       </c>
       <c r="M14" s="79"/>
       <c r="N14" s="80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="79" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R14" s="81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S14" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T14" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U14" s="80"/>
       <c r="V14" s="80"/>
       <c r="W14" s="80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X14" s="80" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z14" s="80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA14" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB14" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC14" s="80"/>
       <c r="AD14" s="80"/>
       <c r="AE14" s="80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF14" s="80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG14" s="80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AH14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="AF15" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AG16" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N17" s="84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O17" s="84" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P17" s="84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R17" s="84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AA17" s="84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AB17" s="84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC17" s="84" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AD17" s="84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF17" s="84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AH17" s="84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K18" s="84" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O18" s="84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AC18" s="84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AD18" s="85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG18" s="85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="O19" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="T19" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="U19" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="AB19" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC19" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="N19" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="O19" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T19" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="U19" s="86" t="s">
+      <c r="AH19" s="86" t="s">
         <v>246</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB19" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC19" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH19" s="86" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N20" s="86"/>
       <c r="O20" s="86"/>
@@ -5990,7 +6002,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
@@ -6108,31 +6120,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J1" s="95" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L1" s="97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6151,12 +6163,12 @@
       <c r="D2" s="100"/>
       <c r="E2" s="100"/>
       <c r="F2" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G2" s="100"/>
       <c r="I2" s="100"/>
       <c r="J2" s="101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K2" s="102"/>
       <c r="L2" s="103"/>
@@ -6176,19 +6188,19 @@
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H3" s="104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K3" s="102"/>
       <c r="L3" s="103"/>
@@ -6208,16 +6220,16 @@
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="90" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G4" s="100"/>
       <c r="H4" s="104"/>
       <c r="I4" s="100"/>
       <c r="J4" s="101" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="103"/>
@@ -6238,13 +6250,13 @@
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
       <c r="F5" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G5" s="100"/>
       <c r="H5" s="104"/>
       <c r="I5" s="100"/>
       <c r="J5" s="101" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="103"/>
@@ -6265,13 +6277,13 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="104"/>
       <c r="I6" s="100"/>
       <c r="J6" s="101" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="103"/>
@@ -6292,13 +6304,13 @@
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="104"/>
       <c r="I7" s="100"/>
       <c r="J7" s="101" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="103"/>
@@ -6317,16 +6329,16 @@
         <v>Ed24(1)</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="100"/>
       <c r="H8" s="104"/>
       <c r="I8" s="103"/>
       <c r="J8" s="106" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="103"/>
@@ -6347,13 +6359,13 @@
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="104"/>
       <c r="I9" s="103"/>
       <c r="J9" s="106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="103"/>
@@ -6374,13 +6386,13 @@
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="104"/>
       <c r="I10" s="103"/>
       <c r="J10" s="106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="103"/>
@@ -6400,18 +6412,18 @@
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G11" s="100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" s="104"/>
       <c r="I11" s="103"/>
       <c r="J11" s="90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="103"/>
@@ -6431,13 +6443,13 @@
       </c>
       <c r="D12" s="100"/>
       <c r="F12" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="104"/>
       <c r="I12" s="103"/>
       <c r="J12" s="106" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="103"/>
@@ -6458,13 +6470,13 @@
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G13" s="100"/>
       <c r="H13" s="104"/>
       <c r="I13" s="103"/>
       <c r="J13" s="106" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="103"/>
@@ -6484,16 +6496,16 @@
       </c>
       <c r="D14" s="100"/>
       <c r="E14" s="90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G14" s="100"/>
       <c r="H14" s="104"/>
       <c r="I14" s="103"/>
       <c r="J14" s="90" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="103"/>
@@ -6514,13 +6526,13 @@
       <c r="D15" s="100"/>
       <c r="E15" s="100"/>
       <c r="F15" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="104"/>
       <c r="I15" s="103"/>
       <c r="J15" s="106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K15" s="96"/>
       <c r="L15" s="97"/>
@@ -6541,7 +6553,7 @@
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" s="100"/>
       <c r="H16" s="104"/>
@@ -6565,19 +6577,19 @@
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="G17" s="100" t="s">
-        <v>260</v>
-      </c>
       <c r="H17" s="104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K17" s="102"/>
       <c r="L17" s="103"/>
@@ -6597,13 +6609,13 @@
       </c>
       <c r="D18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="104"/>
       <c r="I18" s="103"/>
       <c r="J18" s="92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K18" s="102"/>
       <c r="L18" s="103"/>
@@ -6624,13 +6636,13 @@
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G19" s="100"/>
       <c r="H19" s="104"/>
       <c r="I19" s="103"/>
       <c r="J19" s="101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K19" s="102"/>
       <c r="L19" s="103"/>
@@ -6650,13 +6662,13 @@
       </c>
       <c r="D20" s="100"/>
       <c r="F20" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G20" s="100"/>
       <c r="H20" s="104"/>
       <c r="I20" s="103"/>
       <c r="J20" s="101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K20" s="102"/>
       <c r="L20" s="103"/>
@@ -6675,16 +6687,16 @@
         <v>-</v>
       </c>
       <c r="E21" s="100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G21" s="100"/>
       <c r="H21" s="104"/>
       <c r="I21" s="100"/>
       <c r="J21" s="101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K21" s="102"/>
       <c r="L21" s="103"/>
@@ -6704,13 +6716,13 @@
       </c>
       <c r="D22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G22" s="100"/>
       <c r="H22" s="104"/>
       <c r="I22" s="100"/>
       <c r="J22" s="90" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K22" s="102"/>
       <c r="L22" s="103"/>
@@ -6730,13 +6742,13 @@
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="100"/>
       <c r="H23" s="104"/>
       <c r="I23" s="100"/>
       <c r="J23" s="101" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="102"/>
       <c r="L23" s="103"/>
@@ -6756,18 +6768,18 @@
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="100"/>
       <c r="J24" s="101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K24" s="102"/>
       <c r="L24" s="103"/>
@@ -6788,13 +6800,13 @@
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G25" s="100"/>
       <c r="H25" s="104"/>
       <c r="I25" s="100"/>
       <c r="J25" s="101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" s="102"/>
       <c r="L25" s="103"/>
@@ -6815,13 +6827,13 @@
       <c r="D26" s="100"/>
       <c r="E26" s="100"/>
       <c r="F26" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G26" s="100"/>
       <c r="H26" s="104"/>
       <c r="I26" s="100"/>
       <c r="J26" s="101" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K26" s="102"/>
       <c r="L26" s="103"/>
@@ -6842,13 +6854,13 @@
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G27" s="100"/>
       <c r="H27" s="104"/>
       <c r="I27" s="100"/>
       <c r="J27" s="101" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K27" s="102"/>
       <c r="L27" s="103"/>
@@ -6868,10 +6880,10 @@
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="100"/>
       <c r="H28" s="104"/>
@@ -6895,7 +6907,7 @@
       </c>
       <c r="D29" s="100"/>
       <c r="F29" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G29" s="100"/>
       <c r="H29" s="104"/>
@@ -6920,7 +6932,7 @@
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G30" s="100"/>
       <c r="H30" s="104"/>
@@ -6944,10 +6956,10 @@
       </c>
       <c r="D31" s="100"/>
       <c r="E31" s="100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F31" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G31" s="100"/>
       <c r="H31" s="104"/>
